--- a/WCKYWCKF.EmmyLua.LanguageServer.Framework.ClientEx/Language Server Protocol 3.18（语言服务器协议） 请求与通知一览.xlsx
+++ b/WCKYWCKF.EmmyLua.LanguageServer.Framework.ClientEx/Language Server Protocol 3.18（语言服务器协议） 请求与通知一览.xlsx
@@ -1925,7 +1925,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1952,9 +1952,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1968,9 +1965,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2294,7 +2288,7 @@
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3:N95"/>
+      <selection pane="bottomLeft" activeCell="H75" sqref="H75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" customHeight="1"/>
@@ -2323,7 +2317,7 @@
       <c r="K1" s="9"/>
       <c r="L1" s="9"/>
       <c r="M1" s="9"/>
-      <c r="N1" s="10"/>
+      <c r="N1" s="9"/>
     </row>
     <row r="2" customHeight="1" spans="1:14">
       <c r="A2" s="4" t="s">
@@ -2362,10 +2356,10 @@
       <c r="L2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="N2" s="11" t="s">
         <v>15</v>
       </c>
     </row>
@@ -2394,27 +2388,27 @@
       <c r="H3" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="13" t="str">
+      <c r="I3" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B3," ",""),_xlpm.suffix,IF(F3="Request（请求）","Request",IF(F3="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InitializeRequest</v>
       </c>
-      <c r="J3" s="13" t="str">
+      <c r="J3" s="12" t="str">
         <f>D3</f>
         <v>InitializeParams</v>
       </c>
-      <c r="K3" s="14" t="str">
+      <c r="K3" s="13" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(C3,"/","_"),"$_","")</f>
         <v>initialize</v>
       </c>
-      <c r="L3" s="15" t="str">
-        <f t="shared" ref="L3:L8" si="0">IF(AND(RIGHT(IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L3" s="14" t="str">
+        <f t="shared" ref="L3:L11" si="0">IF(AND(RIGHT(IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F3="Notification（通知）","",IF(E3="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E3,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E3,"[]","List"),LEN(SUBSTITUTE(E3,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E3,"[]","List")," | ","Or"))," | ","Or"))))</f>
         <v>InitializeResult</v>
       </c>
-      <c r="M3" s="16" t="str">
+      <c r="M3" s="15" t="str">
         <f>IF(F3="Request（请求）","true",IF(F3="Notification（通知）","false","error"))</f>
         <v>true</v>
       </c>
-      <c r="N3" s="17" t="str">
+      <c r="N3" s="16" t="str">
         <f>"new"&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;"    Method = """&amp;I3&amp;""","&amp;CHAR(10)&amp;"    ResultType = """&amp;L3&amp;""","&amp;CHAR(10)&amp;"    ParamsType = """&amp;J3&amp;""","&amp;CHAR(10)&amp;"    LspMethod = """&amp;K3&amp;""","&amp;CHAR(10)&amp;"    IsRequest="&amp;M3&amp;CHAR(10)&amp;"}"</f>
         <v>new
 {
@@ -2451,27 +2445,27 @@
       <c r="H4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="I4" s="13" t="str">
+      <c r="I4" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B4," ",""),_xlpm.suffix,IF(F4="Request（请求）","Request",IF(F4="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InitializedNotification</v>
       </c>
-      <c r="J4" s="13" t="str">
+      <c r="J4" s="12" t="str">
         <f t="shared" ref="J4:J35" si="1">D4</f>
         <v>InitializedParams</v>
       </c>
-      <c r="K4" s="14" t="str">
+      <c r="K4" s="13" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(C4,"/","_"),"$_","")</f>
         <v>initialized</v>
       </c>
-      <c r="L4" s="15" t="str">
+      <c r="L4" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M4" s="16" t="str">
+      <c r="M4" s="15" t="str">
         <f t="shared" ref="M4:M35" si="2">IF(F4="Request（请求）","true",IF(F4="Notification（通知）","false","error"))</f>
         <v>false</v>
       </c>
-      <c r="N4" s="17" t="str">
+      <c r="N4" s="16" t="str">
         <f t="shared" ref="N4:N35" si="3">"new"&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;"    Method = """&amp;I4&amp;""","&amp;CHAR(10)&amp;"    ResultType = """&amp;L4&amp;""","&amp;CHAR(10)&amp;"    ParamsType = """&amp;J4&amp;""","&amp;CHAR(10)&amp;"    LspMethod = """&amp;K4&amp;""","&amp;CHAR(10)&amp;"    IsRequest="&amp;M4&amp;CHAR(10)&amp;"}"</f>
         <v>new
 {
@@ -2508,27 +2502,27 @@
       <c r="H5" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="13" t="str">
+      <c r="I5" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B5," ",""),_xlpm.suffix,IF(F5="Request（请求）","Request",IF(F5="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>RegisterCapabilityRequest</v>
       </c>
-      <c r="J5" s="13" t="str">
+      <c r="J5" s="12" t="str">
         <f t="shared" si="1"/>
         <v>RegistrationParams</v>
       </c>
-      <c r="K5" s="14" t="str">
+      <c r="K5" s="13" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(C5,"/","_"),"$_","")</f>
         <v>client_registerCapability</v>
       </c>
-      <c r="L5" s="15" t="str">
+      <c r="L5" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M5" s="16" t="str">
+      <c r="M5" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N5" s="17" t="str">
+      <c r="N5" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2565,27 +2559,27 @@
       <c r="H6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="I6" s="13" t="str">
+      <c r="I6" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B6," ",""),_xlpm.suffix,IF(F6="Request（请求）","Request",IF(F6="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>UnregisterCapabilityRequest</v>
       </c>
-      <c r="J6" s="13" t="str">
+      <c r="J6" s="12" t="str">
         <f t="shared" si="1"/>
         <v>UnregistrationParams</v>
       </c>
-      <c r="K6" s="14" t="str">
+      <c r="K6" s="13" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(C6,"/","_"),"$_","")</f>
         <v>client_unregisterCapability</v>
       </c>
-      <c r="L6" s="15" t="str">
+      <c r="L6" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M6" s="16" t="str">
+      <c r="M6" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N6" s="17" t="str">
+      <c r="N6" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2622,27 +2616,27 @@
       <c r="H7" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="13" t="str">
+      <c r="I7" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B7," ",""),_xlpm.suffix,IF(F7="Request（请求）","Request",IF(F7="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>SetTraceNotification</v>
       </c>
-      <c r="J7" s="13" t="str">
+      <c r="J7" s="12" t="str">
         <f t="shared" si="1"/>
         <v>SetTraceParams</v>
       </c>
-      <c r="K7" s="14" t="str">
+      <c r="K7" s="13" t="str">
         <f>SUBSTITUTE(SUBSTITUTE(C7,"/","_"),"$_","")</f>
         <v>setTrace</v>
       </c>
-      <c r="L7" s="15" t="str">
+      <c r="L7" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M7" s="16" t="str">
+      <c r="M7" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N7" s="17" t="str">
+      <c r="N7" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2679,27 +2673,27 @@
       <c r="H8" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="I8" s="13" t="str">
+      <c r="I8" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B8," ",""),_xlpm.suffix,IF(F8="Request（请求）","Request",IF(F8="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>LogTraceNotification</v>
       </c>
-      <c r="J8" s="13" t="str">
+      <c r="J8" s="12" t="str">
         <f t="shared" si="1"/>
         <v>LogTraceParams</v>
       </c>
-      <c r="K8" s="14" t="str">
+      <c r="K8" s="13" t="str">
         <f t="shared" ref="K8:K39" si="4">SUBSTITUTE(SUBSTITUTE(C8,"/","_"),"$_","")</f>
         <v>logTrace</v>
       </c>
-      <c r="L8" s="15" t="str">
+      <c r="L8" s="14" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M8" s="16" t="str">
+      <c r="M8" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N8" s="17" t="str">
+      <c r="N8" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2736,27 +2730,27 @@
       <c r="H9" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="I9" s="13" t="str">
+      <c r="I9" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B9," ",""),_xlpm.suffix,IF(F9="Request（请求）","Request",IF(F9="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ShutdownRequest</v>
       </c>
-      <c r="J9" s="13" t="str">
+      <c r="J9" s="12" t="str">
         <f t="shared" si="1"/>
         <v>none</v>
       </c>
-      <c r="K9" s="14" t="str">
+      <c r="K9" s="13" t="str">
         <f t="shared" si="4"/>
         <v>shutdown</v>
       </c>
-      <c r="L9" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F9="Notification（通知）","",IF(E9="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E9,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E9,"[]","List"),LEN(SUBSTITUTE(E9,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E9,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F9="Notification（通知）","",IF(E9="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E9,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E9,"[]","List"),LEN(SUBSTITUTE(E9,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E9,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F9="Notification（通知）","",IF(E9="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E9,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E9,"[]","List"),LEN(SUBSTITUTE(E9,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E9,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F9="Notification（通知）","",IF(E9="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E9,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E9,"[]","List"),LEN(SUBSTITUTE(E9,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E9,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F9="Notification（通知）","",IF(E9="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E9,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E9,"[]","List"),LEN(SUBSTITUTE(E9,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E9,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L9" s="14" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M9" s="16" t="str">
+      <c r="M9" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N9" s="17" t="str">
+      <c r="N9" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2793,27 +2787,27 @@
       <c r="H10" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="I10" s="13" t="str">
+      <c r="I10" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B10," ",""),_xlpm.suffix,IF(F10="Request（请求）","Request",IF(F10="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ExitNotification</v>
       </c>
-      <c r="J10" s="13" t="str">
+      <c r="J10" s="12" t="str">
         <f t="shared" si="1"/>
         <v>none</v>
       </c>
-      <c r="K10" s="14" t="str">
+      <c r="K10" s="13" t="str">
         <f t="shared" si="4"/>
         <v>exit</v>
       </c>
-      <c r="L10" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F10="Notification（通知）","",IF(E10="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E10,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E10,"[]","List"),LEN(SUBSTITUTE(E10,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E10,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F10="Notification（通知）","",IF(E10="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E10,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E10,"[]","List"),LEN(SUBSTITUTE(E10,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E10,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F10="Notification（通知）","",IF(E10="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E10,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E10,"[]","List"),LEN(SUBSTITUTE(E10,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E10,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F10="Notification（通知）","",IF(E10="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E10,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E10,"[]","List"),LEN(SUBSTITUTE(E10,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E10,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F10="Notification（通知）","",IF(E10="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E10,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E10,"[]","List"),LEN(SUBSTITUTE(E10,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E10,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L10" s="14" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M10" s="16" t="str">
+      <c r="M10" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N10" s="17" t="str">
+      <c r="N10" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2850,27 +2844,27 @@
       <c r="H11" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="I11" s="13" t="str">
+      <c r="I11" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B11," ",""),_xlpm.suffix,IF(F11="Request（请求）","Request",IF(F11="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidOpenTextDocumentNotification</v>
       </c>
-      <c r="J11" s="13" t="str">
+      <c r="J11" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidOpenTextDocumentParams</v>
       </c>
-      <c r="K11" s="14" t="str">
+      <c r="K11" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_didOpen</v>
       </c>
-      <c r="L11" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F11="Notification（通知）","",IF(E11="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E11,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E11,"[]","List"),LEN(SUBSTITUTE(E11,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E11,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F11="Notification（通知）","",IF(E11="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E11,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E11,"[]","List"),LEN(SUBSTITUTE(E11,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E11,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F11="Notification（通知）","",IF(E11="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E11,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E11,"[]","List"),LEN(SUBSTITUTE(E11,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E11,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F11="Notification（通知）","",IF(E11="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E11,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E11,"[]","List"),LEN(SUBSTITUTE(E11,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E11,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F11="Notification（通知）","",IF(E11="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E11,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E11,"[]","List"),LEN(SUBSTITUTE(E11,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E11,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L11" s="14" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M11" s="16" t="str">
+      <c r="M11" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N11" s="17" t="str">
+      <c r="N11" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2907,27 +2901,27 @@
       <c r="H12" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="13" t="str">
+      <c r="I12" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B12," ",""),_xlpm.suffix,IF(F12="Request（请求）","Request",IF(F12="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidChangeTextDocumentNotification</v>
       </c>
-      <c r="J12" s="13" t="str">
+      <c r="J12" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidChangeTextDocumentParams</v>
       </c>
-      <c r="K12" s="14" t="str">
+      <c r="K12" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_didChange</v>
       </c>
-      <c r="L12" s="15" t="str">
-        <f t="shared" ref="L12:L33" si="5">IF(AND(RIGHT(IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L12" s="14" t="str">
+        <f t="shared" ref="L12:L36" si="5">IF(AND(RIGHT(IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F12="Notification（通知）","",IF(E12="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E12,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E12,"[]","List"),LEN(SUBSTITUTE(E12,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E12,"[]","List")," | ","Or"))," | ","Or"))))</f>
         <v/>
       </c>
-      <c r="M12" s="16" t="str">
+      <c r="M12" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N12" s="17" t="str">
+      <c r="N12" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -2964,27 +2958,27 @@
       <c r="H13" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="I13" s="13" t="str">
+      <c r="I13" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B13," ",""),_xlpm.suffix,IF(F13="Request（请求）","Request",IF(F13="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WillSaveTextDocumentNotification</v>
       </c>
-      <c r="J13" s="13" t="str">
+      <c r="J13" s="12" t="str">
         <f t="shared" si="1"/>
         <v>WillSaveTextDocumentParams</v>
       </c>
-      <c r="K13" s="14" t="str">
+      <c r="K13" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_willSave</v>
       </c>
-      <c r="L13" s="15" t="str">
+      <c r="L13" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M13" s="16" t="str">
+      <c r="M13" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N13" s="17" t="str">
+      <c r="N13" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3021,27 +3015,27 @@
       <c r="H14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="I14" s="13" t="str">
+      <c r="I14" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B14," ",""),_xlpm.suffix,IF(F14="Request（请求）","Request",IF(F14="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WillSaveWaitUntilTextDocumentRequest</v>
       </c>
-      <c r="J14" s="13" t="str">
+      <c r="J14" s="12" t="str">
         <f t="shared" si="1"/>
         <v>WillSaveTextDocumentParams</v>
       </c>
-      <c r="K14" s="14" t="str">
+      <c r="K14" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_willSaveWaitUntil</v>
       </c>
-      <c r="L14" s="15" t="str">
+      <c r="L14" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;TextEdit&gt;</v>
       </c>
-      <c r="M14" s="16" t="str">
+      <c r="M14" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N14" s="17" t="str">
+      <c r="N14" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3078,27 +3072,27 @@
       <c r="H15" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="I15" s="13" t="str">
+      <c r="I15" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B15," ",""),_xlpm.suffix,IF(F15="Request（请求）","Request",IF(F15="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidSaveTextDocumentNotification</v>
       </c>
-      <c r="J15" s="13" t="str">
+      <c r="J15" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidSaveTextDocumentParams</v>
       </c>
-      <c r="K15" s="14" t="str">
+      <c r="K15" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_didSave</v>
       </c>
-      <c r="L15" s="15" t="str">
+      <c r="L15" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M15" s="16" t="str">
+      <c r="M15" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N15" s="17" t="str">
+      <c r="N15" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3135,27 +3129,27 @@
       <c r="H16" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I16" s="13" t="str">
+      <c r="I16" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B16," ",""),_xlpm.suffix,IF(F16="Request（请求）","Request",IF(F16="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidCloseTextDocumentNotification</v>
       </c>
-      <c r="J16" s="13" t="str">
+      <c r="J16" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidCloseTextDocumentParams</v>
       </c>
-      <c r="K16" s="14" t="str">
+      <c r="K16" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_didClose</v>
       </c>
-      <c r="L16" s="15" t="str">
+      <c r="L16" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M16" s="16" t="str">
+      <c r="M16" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N16" s="17" t="str">
+      <c r="N16" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3192,27 +3186,27 @@
       <c r="H17" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="I17" s="13" t="str">
+      <c r="I17" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B17," ",""),_xlpm.suffix,IF(F17="Request（请求）","Request",IF(F17="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidOpenNotebookDocumentNotification</v>
       </c>
-      <c r="J17" s="13" t="str">
+      <c r="J17" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidOpenNotebookDocumentParams</v>
       </c>
-      <c r="K17" s="14" t="str">
+      <c r="K17" s="13" t="str">
         <f t="shared" si="4"/>
         <v>notebookDocument_didOpen</v>
       </c>
-      <c r="L17" s="15" t="str">
+      <c r="L17" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M17" s="16" t="str">
+      <c r="M17" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N17" s="17" t="str">
+      <c r="N17" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3249,27 +3243,27 @@
       <c r="H18" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="I18" s="13" t="str">
+      <c r="I18" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B18," ",""),_xlpm.suffix,IF(F18="Request（请求）","Request",IF(F18="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidChangeNotebookDocumentNotification</v>
       </c>
-      <c r="J18" s="13" t="str">
+      <c r="J18" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidChangeNotebookDocumentParams</v>
       </c>
-      <c r="K18" s="14" t="str">
+      <c r="K18" s="13" t="str">
         <f t="shared" si="4"/>
         <v>notebookDocument_didChange</v>
       </c>
-      <c r="L18" s="15" t="str">
+      <c r="L18" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M18" s="16" t="str">
+      <c r="M18" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N18" s="17" t="str">
+      <c r="N18" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3306,27 +3300,27 @@
       <c r="H19" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="I19" s="13" t="str">
+      <c r="I19" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B19," ",""),_xlpm.suffix,IF(F19="Request（请求）","Request",IF(F19="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidSaveNotebookDocumentNotification</v>
       </c>
-      <c r="J19" s="13" t="str">
+      <c r="J19" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidSaveNotebookDocumentParams</v>
       </c>
-      <c r="K19" s="14" t="str">
+      <c r="K19" s="13" t="str">
         <f t="shared" si="4"/>
         <v>notebookDocument_didSave</v>
       </c>
-      <c r="L19" s="15" t="str">
+      <c r="L19" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M19" s="16" t="str">
+      <c r="M19" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N19" s="17" t="str">
+      <c r="N19" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3363,27 +3357,27 @@
       <c r="H20" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="I20" s="13" t="str">
+      <c r="I20" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B20," ",""),_xlpm.suffix,IF(F20="Request（请求）","Request",IF(F20="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidCloseNotebookDocumentNotification</v>
       </c>
-      <c r="J20" s="13" t="str">
+      <c r="J20" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DidCloseNotebookDocumentParams</v>
       </c>
-      <c r="K20" s="14" t="str">
+      <c r="K20" s="13" t="str">
         <f t="shared" si="4"/>
         <v>notebookDocument_didClose</v>
       </c>
-      <c r="L20" s="15" t="str">
+      <c r="L20" s="14" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="M20" s="16" t="str">
+      <c r="M20" s="15" t="str">
         <f t="shared" si="2"/>
         <v>false</v>
       </c>
-      <c r="N20" s="17" t="str">
+      <c r="N20" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3420,27 +3414,27 @@
       <c r="H21" s="8" t="s">
         <v>101</v>
       </c>
-      <c r="I21" s="13" t="str">
+      <c r="I21" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B21," ",""),_xlpm.suffix,IF(F21="Request（请求）","Request",IF(F21="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>GotoDeclarationRequest</v>
       </c>
-      <c r="J21" s="13" t="str">
+      <c r="J21" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DeclarationParams</v>
       </c>
-      <c r="K21" s="14" t="str">
+      <c r="K21" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_declaration</v>
       </c>
-      <c r="L21" s="15" t="str">
+      <c r="L21" s="14" t="str">
         <f t="shared" si="5"/>
         <v>LocationOrLocationListOrLocationLinkList</v>
       </c>
-      <c r="M21" s="16" t="str">
+      <c r="M21" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N21" s="17" t="str">
+      <c r="N21" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3477,27 +3471,27 @@
       <c r="H22" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="I22" s="13" t="str">
+      <c r="I22" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B22," ",""),_xlpm.suffix,IF(F22="Request（请求）","Request",IF(F22="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>GotoDefinitionRequest</v>
       </c>
-      <c r="J22" s="13" t="str">
+      <c r="J22" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DefinitionParams</v>
       </c>
-      <c r="K22" s="14" t="str">
+      <c r="K22" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_definition</v>
       </c>
-      <c r="L22" s="15" t="str">
+      <c r="L22" s="14" t="str">
         <f t="shared" si="5"/>
         <v>LocationOrLocationListOrLocationLinkList</v>
       </c>
-      <c r="M22" s="16" t="str">
+      <c r="M22" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N22" s="17" t="str">
+      <c r="N22" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3532,27 +3526,27 @@
         <v>22</v>
       </c>
       <c r="H23" s="7"/>
-      <c r="I23" s="13" t="str">
+      <c r="I23" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B23," ",""),_xlpm.suffix,IF(F23="Request（请求）","Request",IF(F23="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>GotoTypeDefinitionRequest</v>
       </c>
-      <c r="J23" s="13" t="str">
+      <c r="J23" s="12" t="str">
         <f t="shared" si="1"/>
         <v>TypeDefinitionParams</v>
       </c>
-      <c r="K23" s="14" t="str">
+      <c r="K23" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_typeDefinition</v>
       </c>
-      <c r="L23" s="15" t="str">
+      <c r="L23" s="14" t="str">
         <f t="shared" si="5"/>
         <v>LocationOrLocationListOrLocationLinkList</v>
       </c>
-      <c r="M23" s="16" t="str">
+      <c r="M23" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N23" s="17" t="str">
+      <c r="N23" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3587,27 +3581,27 @@
         <v>22</v>
       </c>
       <c r="H24" s="7"/>
-      <c r="I24" s="13" t="str">
+      <c r="I24" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B24," ",""),_xlpm.suffix,IF(F24="Request（请求）","Request",IF(F24="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>GotoImplementationRequest</v>
       </c>
-      <c r="J24" s="13" t="str">
+      <c r="J24" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ImplementationParams</v>
       </c>
-      <c r="K24" s="14" t="str">
+      <c r="K24" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_implementation</v>
       </c>
-      <c r="L24" s="15" t="str">
+      <c r="L24" s="14" t="str">
         <f t="shared" si="5"/>
         <v>LocationOrLocationListOrLocationLinkList</v>
       </c>
-      <c r="M24" s="16" t="str">
+      <c r="M24" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N24" s="17" t="str">
+      <c r="N24" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3642,27 +3636,27 @@
         <v>22</v>
       </c>
       <c r="H25" s="7"/>
-      <c r="I25" s="13" t="str">
+      <c r="I25" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B25," ",""),_xlpm.suffix,IF(F25="Request（请求）","Request",IF(F25="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>FindReferencesRequest</v>
       </c>
-      <c r="J25" s="13" t="str">
+      <c r="J25" s="12" t="str">
         <f t="shared" si="1"/>
         <v>ReferenceParams</v>
       </c>
-      <c r="K25" s="14" t="str">
+      <c r="K25" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_references</v>
       </c>
-      <c r="L25" s="15" t="str">
+      <c r="L25" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;Location&gt;</v>
       </c>
-      <c r="M25" s="16" t="str">
+      <c r="M25" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N25" s="17" t="str">
+      <c r="N25" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3697,27 +3691,27 @@
         <v>22</v>
       </c>
       <c r="H26" s="7"/>
-      <c r="I26" s="13" t="str">
+      <c r="I26" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B26," ",""),_xlpm.suffix,IF(F26="Request（请求）","Request",IF(F26="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>PrepareCallHierarchyRequest</v>
       </c>
-      <c r="J26" s="13" t="str">
+      <c r="J26" s="12" t="str">
         <f t="shared" si="1"/>
         <v>CallHierarchyPrepareParams</v>
       </c>
-      <c r="K26" s="14" t="str">
+      <c r="K26" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_prepareCallHierarchy</v>
       </c>
-      <c r="L26" s="15" t="str">
+      <c r="L26" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;CallHierarchyItem&gt;</v>
       </c>
-      <c r="M26" s="16" t="str">
+      <c r="M26" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N26" s="17" t="str">
+      <c r="N26" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3752,27 +3746,27 @@
         <v>22</v>
       </c>
       <c r="H27" s="7"/>
-      <c r="I27" s="13" t="str">
+      <c r="I27" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B27," ",""),_xlpm.suffix,IF(F27="Request（请求）","Request",IF(F27="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CallHierarchyIncomingCallsRequest</v>
       </c>
-      <c r="J27" s="13" t="str">
+      <c r="J27" s="12" t="str">
         <f t="shared" si="1"/>
         <v>CallHierarchyIncomingCallsParams</v>
       </c>
-      <c r="K27" s="14" t="str">
+      <c r="K27" s="13" t="str">
         <f t="shared" si="4"/>
         <v>callHierarchy_incomingCalls</v>
       </c>
-      <c r="L27" s="15" t="str">
+      <c r="L27" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;CallHierarchyIncomingCall&gt;</v>
       </c>
-      <c r="M27" s="16" t="str">
+      <c r="M27" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N27" s="17" t="str">
+      <c r="N27" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3807,27 +3801,27 @@
         <v>22</v>
       </c>
       <c r="H28" s="7"/>
-      <c r="I28" s="13" t="str">
+      <c r="I28" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B28," ",""),_xlpm.suffix,IF(F28="Request（请求）","Request",IF(F28="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CallHierarchyOutgoingCallsRequest</v>
       </c>
-      <c r="J28" s="13" t="str">
+      <c r="J28" s="12" t="str">
         <f t="shared" si="1"/>
         <v>CallHierarchyOutgoingCallsParams</v>
       </c>
-      <c r="K28" s="14" t="str">
+      <c r="K28" s="13" t="str">
         <f t="shared" si="4"/>
         <v>callHierarchy_outgoingCalls</v>
       </c>
-      <c r="L28" s="15" t="str">
+      <c r="L28" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;CallHierarchyOutgoingCall&gt;</v>
       </c>
-      <c r="M28" s="16" t="str">
+      <c r="M28" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N28" s="17" t="str">
+      <c r="N28" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3862,27 +3856,27 @@
         <v>22</v>
       </c>
       <c r="H29" s="7"/>
-      <c r="I29" s="13" t="str">
+      <c r="I29" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B29," ",""),_xlpm.suffix,IF(F29="Request（请求）","Request",IF(F29="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>PrepareTypeHierarchyRequest</v>
       </c>
-      <c r="J29" s="13" t="str">
+      <c r="J29" s="12" t="str">
         <f t="shared" si="1"/>
         <v>TypeHierarchyPrepareParams</v>
       </c>
-      <c r="K29" s="14" t="str">
+      <c r="K29" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_prepareTypeHierarchy</v>
       </c>
-      <c r="L29" s="15" t="str">
+      <c r="L29" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;TypeHierarchyItem&gt;</v>
       </c>
-      <c r="M29" s="16" t="str">
+      <c r="M29" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N29" s="17" t="str">
+      <c r="N29" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3917,27 +3911,27 @@
         <v>22</v>
       </c>
       <c r="H30" s="7"/>
-      <c r="I30" s="13" t="str">
+      <c r="I30" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B30," ",""),_xlpm.suffix,IF(F30="Request（请求）","Request",IF(F30="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>TypeHierarchySupertypesRequest</v>
       </c>
-      <c r="J30" s="13" t="str">
+      <c r="J30" s="12" t="str">
         <f t="shared" si="1"/>
         <v>TypeHierarchySupertypesParams</v>
       </c>
-      <c r="K30" s="14" t="str">
+      <c r="K30" s="13" t="str">
         <f t="shared" si="4"/>
         <v>typeHierarchy_supertypes</v>
       </c>
-      <c r="L30" s="15" t="str">
+      <c r="L30" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;TypeHierarchyItem&gt;</v>
       </c>
-      <c r="M30" s="16" t="str">
+      <c r="M30" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N30" s="17" t="str">
+      <c r="N30" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -3972,27 +3966,27 @@
         <v>22</v>
       </c>
       <c r="H31" s="7"/>
-      <c r="I31" s="13" t="str">
+      <c r="I31" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B31," ",""),_xlpm.suffix,IF(F31="Request（请求）","Request",IF(F31="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>TypeHierarchySubtypesRequest</v>
       </c>
-      <c r="J31" s="13" t="str">
+      <c r="J31" s="12" t="str">
         <f t="shared" si="1"/>
         <v>TypeHierarchySubtypesParams</v>
       </c>
-      <c r="K31" s="14" t="str">
+      <c r="K31" s="13" t="str">
         <f t="shared" si="4"/>
         <v>typeHierarchy_subtypes</v>
       </c>
-      <c r="L31" s="15" t="str">
+      <c r="L31" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;TypeHierarchyItem&gt;</v>
       </c>
-      <c r="M31" s="16" t="str">
+      <c r="M31" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N31" s="17" t="str">
+      <c r="N31" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -4027,27 +4021,27 @@
         <v>22</v>
       </c>
       <c r="H32" s="7"/>
-      <c r="I32" s="13" t="str">
+      <c r="I32" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B32," ",""),_xlpm.suffix,IF(F32="Request（请求）","Request",IF(F32="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentHighlightsRequest</v>
       </c>
-      <c r="J32" s="13" t="str">
+      <c r="J32" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DocumentHighlightParams</v>
       </c>
-      <c r="K32" s="14" t="str">
+      <c r="K32" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_documentHighlight</v>
       </c>
-      <c r="L32" s="15" t="str">
+      <c r="L32" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;DocumentHighlight&gt;</v>
       </c>
-      <c r="M32" s="16" t="str">
+      <c r="M32" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N32" s="17" t="str">
+      <c r="N32" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -4082,27 +4076,27 @@
         <v>22</v>
       </c>
       <c r="H33" s="7"/>
-      <c r="I33" s="13" t="str">
+      <c r="I33" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B33," ",""),_xlpm.suffix,IF(F33="Request（请求）","Request",IF(F33="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentLinkRequest</v>
       </c>
-      <c r="J33" s="13" t="str">
+      <c r="J33" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DocumentLinkParams</v>
       </c>
-      <c r="K33" s="14" t="str">
+      <c r="K33" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_documentLink</v>
       </c>
-      <c r="L33" s="15" t="str">
+      <c r="L33" s="14" t="str">
         <f t="shared" si="5"/>
         <v>List&lt;DocumentLink&gt;</v>
       </c>
-      <c r="M33" s="16" t="str">
+      <c r="M33" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N33" s="17" t="str">
+      <c r="N33" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -4137,27 +4131,27 @@
         <v>22</v>
       </c>
       <c r="H34" s="7"/>
-      <c r="I34" s="13" t="str">
+      <c r="I34" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B34," ",""),_xlpm.suffix,IF(F34="Request（请求）","Request",IF(F34="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentLinkResolveRequest</v>
       </c>
-      <c r="J34" s="13" t="str">
+      <c r="J34" s="12" t="str">
         <f t="shared" si="1"/>
         <v>DocumentLink</v>
       </c>
-      <c r="K34" s="14" t="str">
+      <c r="K34" s="13" t="str">
         <f t="shared" si="4"/>
         <v>documentLink_resolve</v>
       </c>
-      <c r="L34" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F34="Notification（通知）","",IF(E34="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E34,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E34,"[]","List"),LEN(SUBSTITUTE(E34,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E34,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F34="Notification（通知）","",IF(E34="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E34,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E34,"[]","List"),LEN(SUBSTITUTE(E34,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E34,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F34="Notification（通知）","",IF(E34="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E34,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E34,"[]","List"),LEN(SUBSTITUTE(E34,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E34,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F34="Notification（通知）","",IF(E34="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E34,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E34,"[]","List"),LEN(SUBSTITUTE(E34,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E34,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F34="Notification（通知）","",IF(E34="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E34,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E34,"[]","List"),LEN(SUBSTITUTE(E34,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E34,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L34" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>DocumentLink</v>
       </c>
-      <c r="M34" s="16" t="str">
+      <c r="M34" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N34" s="17" t="str">
+      <c r="N34" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -4192,27 +4186,27 @@
         <v>22</v>
       </c>
       <c r="H35" s="7"/>
-      <c r="I35" s="13" t="str">
+      <c r="I35" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B35," ",""),_xlpm.suffix,IF(F35="Request（请求）","Request",IF(F35="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>HoverRequest</v>
       </c>
-      <c r="J35" s="13" t="str">
+      <c r="J35" s="12" t="str">
         <f t="shared" si="1"/>
         <v>HoverParams</v>
       </c>
-      <c r="K35" s="14" t="str">
+      <c r="K35" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_hover</v>
       </c>
-      <c r="L35" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F35="Notification（通知）","",IF(E35="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E35,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E35,"[]","List"),LEN(SUBSTITUTE(E35,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E35,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F35="Notification（通知）","",IF(E35="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E35,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E35,"[]","List"),LEN(SUBSTITUTE(E35,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E35,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F35="Notification（通知）","",IF(E35="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E35,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E35,"[]","List"),LEN(SUBSTITUTE(E35,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E35,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F35="Notification（通知）","",IF(E35="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E35,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E35,"[]","List"),LEN(SUBSTITUTE(E35,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E35,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F35="Notification（通知）","",IF(E35="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E35,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E35,"[]","List"),LEN(SUBSTITUTE(E35,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E35,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L35" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>Hover</v>
       </c>
-      <c r="M35" s="16" t="str">
+      <c r="M35" s="15" t="str">
         <f t="shared" si="2"/>
         <v>true</v>
       </c>
-      <c r="N35" s="17" t="str">
+      <c r="N35" s="16" t="str">
         <f t="shared" si="3"/>
         <v>new
 {
@@ -4247,27 +4241,27 @@
         <v>22</v>
       </c>
       <c r="H36" s="7"/>
-      <c r="I36" s="13" t="str">
+      <c r="I36" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B36," ",""),_xlpm.suffix,IF(F36="Request（请求）","Request",IF(F36="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CodeLensRequest</v>
       </c>
-      <c r="J36" s="13" t="str">
+      <c r="J36" s="12" t="str">
         <f t="shared" ref="J36:J67" si="6">D36</f>
         <v>CodeLensParams</v>
       </c>
-      <c r="K36" s="14" t="str">
+      <c r="K36" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_codeLens</v>
       </c>
-      <c r="L36" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F36="Notification（通知）","",IF(E36="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E36,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E36,"[]","List"),LEN(SUBSTITUTE(E36,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E36,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F36="Notification（通知）","",IF(E36="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E36,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E36,"[]","List"),LEN(SUBSTITUTE(E36,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E36,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F36="Notification（通知）","",IF(E36="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E36,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E36,"[]","List"),LEN(SUBSTITUTE(E36,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E36,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F36="Notification（通知）","",IF(E36="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E36,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E36,"[]","List"),LEN(SUBSTITUTE(E36,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E36,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F36="Notification（通知）","",IF(E36="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E36,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E36,"[]","List"),LEN(SUBSTITUTE(E36,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E36,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L36" s="14" t="str">
+        <f t="shared" si="5"/>
         <v>List&lt;CodeLens&gt;</v>
       </c>
-      <c r="M36" s="16" t="str">
+      <c r="M36" s="15" t="str">
         <f t="shared" ref="M36:M67" si="7">IF(F36="Request（请求）","true",IF(F36="Notification（通知）","false","error"))</f>
         <v>true</v>
       </c>
-      <c r="N36" s="17" t="str">
+      <c r="N36" s="16" t="str">
         <f t="shared" ref="N36:N67" si="8">"new"&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;"    Method = """&amp;I36&amp;""","&amp;CHAR(10)&amp;"    ResultType = """&amp;L36&amp;""","&amp;CHAR(10)&amp;"    ParamsType = """&amp;J36&amp;""","&amp;CHAR(10)&amp;"    LspMethod = """&amp;K36&amp;""","&amp;CHAR(10)&amp;"    IsRequest="&amp;M36&amp;CHAR(10)&amp;"}"</f>
         <v>new
 {
@@ -4302,27 +4296,27 @@
         <v>22</v>
       </c>
       <c r="H37" s="7"/>
-      <c r="I37" s="13" t="str">
+      <c r="I37" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B37," ",""),_xlpm.suffix,IF(F37="Request（请求）","Request",IF(F37="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CodeLensResolveRequest</v>
       </c>
-      <c r="J37" s="13" t="str">
+      <c r="J37" s="12" t="str">
         <f t="shared" si="6"/>
         <v>CodeLens</v>
       </c>
-      <c r="K37" s="14" t="str">
+      <c r="K37" s="13" t="str">
         <f t="shared" si="4"/>
         <v>codeLens_resolve</v>
       </c>
-      <c r="L37" s="15" t="str">
-        <f t="shared" ref="L37:L58" si="9">IF(AND(RIGHT(IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L37" s="14" t="str">
+        <f t="shared" ref="L37:L59" si="9">IF(AND(RIGHT(IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F37="Notification（通知）","",IF(E37="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E37,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E37,"[]","List"),LEN(SUBSTITUTE(E37,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E37,"[]","List")," | ","Or"))," | ","Or"))))</f>
         <v>CodeLens</v>
       </c>
-      <c r="M37" s="16" t="str">
+      <c r="M37" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N37" s="17" t="str">
+      <c r="N37" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4357,27 +4351,27 @@
         <v>162</v>
       </c>
       <c r="H38" s="7"/>
-      <c r="I38" s="13" t="str">
+      <c r="I38" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B38," ",""),_xlpm.suffix,IF(F38="Request（请求）","Request",IF(F38="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CodeLensRefreshRequestNotification</v>
       </c>
-      <c r="J38" s="13" t="str">
+      <c r="J38" s="12" t="str">
         <f t="shared" si="6"/>
         <v>none</v>
       </c>
-      <c r="K38" s="14" t="str">
+      <c r="K38" s="13" t="str">
         <f t="shared" si="4"/>
         <v>workspace_codeLens_refresh</v>
       </c>
-      <c r="L38" s="15" t="str">
+      <c r="L38" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M38" s="16" t="str">
+      <c r="M38" s="15" t="str">
         <f t="shared" si="7"/>
         <v>false</v>
       </c>
-      <c r="N38" s="17" t="str">
+      <c r="N38" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4412,27 +4406,27 @@
         <v>22</v>
       </c>
       <c r="H39" s="7"/>
-      <c r="I39" s="13" t="str">
+      <c r="I39" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B39," ",""),_xlpm.suffix,IF(F39="Request（请求）","Request",IF(F39="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>FoldingRangeRequest</v>
       </c>
-      <c r="J39" s="13" t="str">
+      <c r="J39" s="12" t="str">
         <f t="shared" si="6"/>
         <v>FoldingRangeParams</v>
       </c>
-      <c r="K39" s="14" t="str">
+      <c r="K39" s="13" t="str">
         <f t="shared" si="4"/>
         <v>textDocument_foldingRange</v>
       </c>
-      <c r="L39" s="15" t="str">
+      <c r="L39" s="14" t="str">
         <f t="shared" si="9"/>
         <v>List&lt;FoldingRange&gt;</v>
       </c>
-      <c r="M39" s="16" t="str">
+      <c r="M39" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N39" s="17" t="str">
+      <c r="N39" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4467,27 +4461,27 @@
         <v>162</v>
       </c>
       <c r="H40" s="7"/>
-      <c r="I40" s="13" t="str">
+      <c r="I40" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B40," ",""),_xlpm.suffix,IF(F40="Request（请求）","Request",IF(F40="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>FoldingRangeRefreshRequestNotification</v>
       </c>
-      <c r="J40" s="13" t="str">
+      <c r="J40" s="12" t="str">
         <f t="shared" si="6"/>
         <v>none</v>
       </c>
-      <c r="K40" s="14" t="str">
+      <c r="K40" s="13" t="str">
         <f t="shared" ref="K40:K71" si="10">SUBSTITUTE(SUBSTITUTE(C40,"/","_"),"$_","")</f>
         <v>workspace_foldingRange_refresh</v>
       </c>
-      <c r="L40" s="15" t="str">
+      <c r="L40" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M40" s="16" t="str">
+      <c r="M40" s="15" t="str">
         <f t="shared" si="7"/>
         <v>false</v>
       </c>
-      <c r="N40" s="17" t="str">
+      <c r="N40" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4522,27 +4516,27 @@
         <v>22</v>
       </c>
       <c r="H41" s="7"/>
-      <c r="I41" s="13" t="str">
+      <c r="I41" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B41," ",""),_xlpm.suffix,IF(F41="Request（请求）","Request",IF(F41="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>SelectionRangeRequest</v>
       </c>
-      <c r="J41" s="13" t="str">
+      <c r="J41" s="12" t="str">
         <f t="shared" si="6"/>
         <v>SelectionRangeParams</v>
       </c>
-      <c r="K41" s="14" t="str">
+      <c r="K41" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_selectionRange</v>
       </c>
-      <c r="L41" s="15" t="str">
+      <c r="L41" s="14" t="str">
         <f t="shared" si="9"/>
         <v>List&lt;SelectionRange&gt;</v>
       </c>
-      <c r="M41" s="16" t="str">
+      <c r="M41" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N41" s="17" t="str">
+      <c r="N41" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4577,27 +4571,27 @@
         <v>22</v>
       </c>
       <c r="H42" s="7"/>
-      <c r="I42" s="13" t="str">
+      <c r="I42" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B42," ",""),_xlpm.suffix,IF(F42="Request（请求）","Request",IF(F42="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentSymbolsRequest</v>
       </c>
-      <c r="J42" s="13" t="str">
+      <c r="J42" s="12" t="str">
         <f t="shared" si="6"/>
         <v>DocumentSymbolParams</v>
       </c>
-      <c r="K42" s="14" t="str">
+      <c r="K42" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_documentSymbol</v>
       </c>
-      <c r="L42" s="15" t="str">
+      <c r="L42" s="14" t="str">
         <f t="shared" si="9"/>
         <v>DocumentSymbolListOrSymbolInformationList</v>
       </c>
-      <c r="M42" s="16" t="str">
+      <c r="M42" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N42" s="17" t="str">
+      <c r="N42" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4632,27 +4626,27 @@
         <v>22</v>
       </c>
       <c r="H43" s="7"/>
-      <c r="I43" s="13" t="str">
+      <c r="I43" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B43," ",""),_xlpm.suffix,IF(F43="Request（请求）","Request",IF(F43="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>SemanticTokensForFullFileRequest</v>
       </c>
-      <c r="J43" s="13" t="str">
+      <c r="J43" s="12" t="str">
         <f t="shared" si="6"/>
         <v>SemanticTokensParams</v>
       </c>
-      <c r="K43" s="14" t="str">
+      <c r="K43" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_semanticTokens_full</v>
       </c>
-      <c r="L43" s="15" t="str">
+      <c r="L43" s="14" t="str">
         <f t="shared" si="9"/>
         <v>SemanticTokens</v>
       </c>
-      <c r="M43" s="16" t="str">
+      <c r="M43" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N43" s="17" t="str">
+      <c r="N43" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4687,27 +4681,27 @@
         <v>22</v>
       </c>
       <c r="H44" s="7"/>
-      <c r="I44" s="13" t="str">
+      <c r="I44" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B44," ",""),_xlpm.suffix,IF(F44="Request（请求）","Request",IF(F44="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>SemanticTokensForDeltaFileRequest</v>
       </c>
-      <c r="J44" s="13" t="str">
+      <c r="J44" s="12" t="str">
         <f t="shared" si="6"/>
         <v>SemanticTokensDeltaParams</v>
       </c>
-      <c r="K44" s="14" t="str">
+      <c r="K44" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_semanticTokens_full_delta</v>
       </c>
-      <c r="L44" s="15" t="str">
+      <c r="L44" s="14" t="str">
         <f t="shared" si="9"/>
         <v>SemanticTokensOrSemanticTokensDelta</v>
       </c>
-      <c r="M44" s="16" t="str">
+      <c r="M44" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N44" s="17" t="str">
+      <c r="N44" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4742,27 +4736,27 @@
         <v>22</v>
       </c>
       <c r="H45" s="7"/>
-      <c r="I45" s="13" t="str">
+      <c r="I45" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B45," ",""),_xlpm.suffix,IF(F45="Request（请求）","Request",IF(F45="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>SemanticTokensForRangeFileRequest</v>
       </c>
-      <c r="J45" s="13" t="str">
+      <c r="J45" s="12" t="str">
         <f t="shared" si="6"/>
         <v>SemanticTokensRangeParams</v>
       </c>
-      <c r="K45" s="14" t="str">
+      <c r="K45" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_semanticTokens_range</v>
       </c>
-      <c r="L45" s="15" t="str">
+      <c r="L45" s="14" t="str">
         <f t="shared" si="9"/>
         <v>SemanticTokens</v>
       </c>
-      <c r="M45" s="16" t="str">
+      <c r="M45" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N45" s="17" t="str">
+      <c r="N45" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4797,27 +4791,27 @@
         <v>162</v>
       </c>
       <c r="H46" s="7"/>
-      <c r="I46" s="13" t="str">
+      <c r="I46" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B46," ",""),_xlpm.suffix,IF(F46="Request（请求）","Request",IF(F46="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>SemanticTokensForRefreshFileNotification</v>
       </c>
-      <c r="J46" s="13" t="str">
+      <c r="J46" s="12" t="str">
         <f t="shared" si="6"/>
         <v>none</v>
       </c>
-      <c r="K46" s="14" t="str">
+      <c r="K46" s="13" t="str">
         <f t="shared" si="10"/>
         <v>workspace_semanticTokens_refresh</v>
       </c>
-      <c r="L46" s="15" t="str">
+      <c r="L46" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M46" s="16" t="str">
+      <c r="M46" s="15" t="str">
         <f t="shared" si="7"/>
         <v>false</v>
       </c>
-      <c r="N46" s="17" t="str">
+      <c r="N46" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4852,27 +4846,27 @@
         <v>22</v>
       </c>
       <c r="H47" s="7"/>
-      <c r="I47" s="13" t="str">
+      <c r="I47" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B47," ",""),_xlpm.suffix,IF(F47="Request（请求）","Request",IF(F47="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InlayHintRequest</v>
       </c>
-      <c r="J47" s="13" t="str">
+      <c r="J47" s="12" t="str">
         <f t="shared" si="6"/>
         <v>InlayHintParams</v>
       </c>
-      <c r="K47" s="14" t="str">
+      <c r="K47" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_inlayHint</v>
       </c>
-      <c r="L47" s="15" t="str">
+      <c r="L47" s="14" t="str">
         <f t="shared" si="9"/>
         <v>List&lt;InlayHint&gt;</v>
       </c>
-      <c r="M47" s="16" t="str">
+      <c r="M47" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N47" s="17" t="str">
+      <c r="N47" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4907,27 +4901,27 @@
         <v>22</v>
       </c>
       <c r="H48" s="7"/>
-      <c r="I48" s="13" t="str">
+      <c r="I48" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B48," ",""),_xlpm.suffix,IF(F48="Request（请求）","Request",IF(F48="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InlayHintResolveRequest</v>
       </c>
-      <c r="J48" s="13" t="str">
+      <c r="J48" s="12" t="str">
         <f t="shared" si="6"/>
         <v>InlayHint</v>
       </c>
-      <c r="K48" s="14" t="str">
+      <c r="K48" s="13" t="str">
         <f t="shared" si="10"/>
         <v>inlayHint_resolve</v>
       </c>
-      <c r="L48" s="15" t="str">
+      <c r="L48" s="14" t="str">
         <f t="shared" si="9"/>
         <v>InlayHint</v>
       </c>
-      <c r="M48" s="16" t="str">
+      <c r="M48" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N48" s="17" t="str">
+      <c r="N48" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -4962,27 +4956,27 @@
         <v>162</v>
       </c>
       <c r="H49" s="7"/>
-      <c r="I49" s="13" t="str">
+      <c r="I49" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B49," ",""),_xlpm.suffix,IF(F49="Request（请求）","Request",IF(F49="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InlayHintRefreshRequestNotification</v>
       </c>
-      <c r="J49" s="13" t="str">
+      <c r="J49" s="12" t="str">
         <f t="shared" si="6"/>
         <v>none</v>
       </c>
-      <c r="K49" s="14" t="str">
+      <c r="K49" s="13" t="str">
         <f t="shared" si="10"/>
         <v>workspace_inlayHint_refresh</v>
       </c>
-      <c r="L49" s="15" t="str">
+      <c r="L49" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M49" s="16" t="str">
+      <c r="M49" s="15" t="str">
         <f t="shared" si="7"/>
         <v>false</v>
       </c>
-      <c r="N49" s="17" t="str">
+      <c r="N49" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5017,27 +5011,27 @@
         <v>22</v>
       </c>
       <c r="H50" s="7"/>
-      <c r="I50" s="13" t="str">
+      <c r="I50" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B50," ",""),_xlpm.suffix,IF(F50="Request（请求）","Request",IF(F50="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InlineValueRequest</v>
       </c>
-      <c r="J50" s="13" t="str">
+      <c r="J50" s="12" t="str">
         <f t="shared" si="6"/>
         <v>InlineValueParams</v>
       </c>
-      <c r="K50" s="14" t="str">
+      <c r="K50" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_inlineValue</v>
       </c>
-      <c r="L50" s="15" t="str">
+      <c r="L50" s="14" t="str">
         <f t="shared" si="9"/>
         <v>List&lt;InlineValue&gt;</v>
       </c>
-      <c r="M50" s="16" t="str">
+      <c r="M50" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N50" s="17" t="str">
+      <c r="N50" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5072,27 +5066,27 @@
         <v>162</v>
       </c>
       <c r="H51" s="7"/>
-      <c r="I51" s="13" t="str">
+      <c r="I51" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B51," ",""),_xlpm.suffix,IF(F51="Request（请求）","Request",IF(F51="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InlineValueRefreshRequestNotification</v>
       </c>
-      <c r="J51" s="13" t="str">
+      <c r="J51" s="12" t="str">
         <f t="shared" si="6"/>
         <v>none</v>
       </c>
-      <c r="K51" s="14" t="str">
+      <c r="K51" s="13" t="str">
         <f t="shared" si="10"/>
         <v>workspace_inlineValue_refresh</v>
       </c>
-      <c r="L51" s="15" t="str">
+      <c r="L51" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M51" s="16" t="str">
+      <c r="M51" s="15" t="str">
         <f t="shared" si="7"/>
         <v>false</v>
       </c>
-      <c r="N51" s="17" t="str">
+      <c r="N51" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5127,27 +5121,27 @@
         <v>22</v>
       </c>
       <c r="H52" s="7"/>
-      <c r="I52" s="13" t="str">
+      <c r="I52" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B52," ",""),_xlpm.suffix,IF(F52="Request（请求）","Request",IF(F52="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>MonikersRequest</v>
       </c>
-      <c r="J52" s="13" t="str">
+      <c r="J52" s="12" t="str">
         <f t="shared" si="6"/>
         <v>MonikerParams</v>
       </c>
-      <c r="K52" s="14" t="str">
+      <c r="K52" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_moniker</v>
       </c>
-      <c r="L52" s="15" t="str">
+      <c r="L52" s="14" t="str">
         <f t="shared" si="9"/>
         <v>List&lt;Moniker&gt;</v>
       </c>
-      <c r="M52" s="16" t="str">
+      <c r="M52" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N52" s="17" t="str">
+      <c r="N52" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5182,27 +5176,27 @@
         <v>22</v>
       </c>
       <c r="H53" s="7"/>
-      <c r="I53" s="13" t="str">
+      <c r="I53" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B53," ",""),_xlpm.suffix,IF(F53="Request（请求）","Request",IF(F53="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CompletionRequest</v>
       </c>
-      <c r="J53" s="13" t="str">
+      <c r="J53" s="12" t="str">
         <f t="shared" si="6"/>
         <v>CompletionParams</v>
       </c>
-      <c r="K53" s="14" t="str">
+      <c r="K53" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_completion</v>
       </c>
-      <c r="L53" s="15" t="str">
+      <c r="L53" s="14" t="str">
         <f t="shared" si="9"/>
         <v>CompletionItemListOrCompletionList</v>
       </c>
-      <c r="M53" s="16" t="str">
+      <c r="M53" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N53" s="17" t="str">
+      <c r="N53" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5237,27 +5231,27 @@
         <v>22</v>
       </c>
       <c r="H54" s="7"/>
-      <c r="I54" s="13" t="str">
+      <c r="I54" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B54," ",""),_xlpm.suffix,IF(F54="Request（请求）","Request",IF(F54="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CompletionItemResolveRequest</v>
       </c>
-      <c r="J54" s="13" t="str">
+      <c r="J54" s="12" t="str">
         <f t="shared" si="6"/>
         <v>CompletionItem</v>
       </c>
-      <c r="K54" s="14" t="str">
+      <c r="K54" s="13" t="str">
         <f t="shared" si="10"/>
         <v>completionItem_resolve</v>
       </c>
-      <c r="L54" s="15" t="str">
+      <c r="L54" s="14" t="str">
         <f t="shared" si="9"/>
         <v>CompletionItem</v>
       </c>
-      <c r="M54" s="16" t="str">
+      <c r="M54" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N54" s="17" t="str">
+      <c r="N54" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5292,27 +5286,27 @@
         <v>162</v>
       </c>
       <c r="H55" s="7"/>
-      <c r="I55" s="13" t="str">
+      <c r="I55" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B55," ",""),_xlpm.suffix,IF(F55="Request（请求）","Request",IF(F55="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>PublishDiagnosticsNotification</v>
       </c>
-      <c r="J55" s="13" t="str">
+      <c r="J55" s="12" t="str">
         <f t="shared" si="6"/>
         <v>PublishDiagnosticsParams</v>
       </c>
-      <c r="K55" s="14" t="str">
+      <c r="K55" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_publishDiagnostics</v>
       </c>
-      <c r="L55" s="15" t="str">
+      <c r="L55" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M55" s="16" t="str">
+      <c r="M55" s="15" t="str">
         <f t="shared" si="7"/>
         <v>false</v>
       </c>
-      <c r="N55" s="17" t="str">
+      <c r="N55" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5347,27 +5341,27 @@
         <v>22</v>
       </c>
       <c r="H56" s="7"/>
-      <c r="I56" s="13" t="str">
+      <c r="I56" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B56," ",""),_xlpm.suffix,IF(F56="Request（请求）","Request",IF(F56="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentDiagnosticsRequest</v>
       </c>
-      <c r="J56" s="13" t="str">
+      <c r="J56" s="12" t="str">
         <f t="shared" si="6"/>
         <v>DocumentDiagnosticParams</v>
       </c>
-      <c r="K56" s="14" t="str">
+      <c r="K56" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_diagnostic</v>
       </c>
-      <c r="L56" s="15" t="str">
+      <c r="L56" s="14" t="str">
         <f t="shared" si="9"/>
         <v>DocumentDiagnosticReport</v>
       </c>
-      <c r="M56" s="16" t="str">
+      <c r="M56" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N56" s="17" t="str">
+      <c r="N56" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5402,27 +5396,27 @@
         <v>22</v>
       </c>
       <c r="H57" s="7"/>
-      <c r="I57" s="13" t="str">
+      <c r="I57" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B57," ",""),_xlpm.suffix,IF(F57="Request（请求）","Request",IF(F57="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WorkspaceDiagnosticsRequest</v>
       </c>
-      <c r="J57" s="13" t="str">
+      <c r="J57" s="12" t="str">
         <f t="shared" si="6"/>
         <v>WorkspaceDiagnosticParams</v>
       </c>
-      <c r="K57" s="14" t="str">
+      <c r="K57" s="13" t="str">
         <f t="shared" si="10"/>
         <v>workspace_diagnostic</v>
       </c>
-      <c r="L57" s="15" t="str">
+      <c r="L57" s="14" t="str">
         <f t="shared" si="9"/>
         <v>WorkspaceDiagnosticReport</v>
       </c>
-      <c r="M57" s="16" t="str">
+      <c r="M57" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N57" s="17" t="str">
+      <c r="N57" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5457,27 +5451,27 @@
         <v>162</v>
       </c>
       <c r="H58" s="7"/>
-      <c r="I58" s="13" t="str">
+      <c r="I58" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B58," ",""),_xlpm.suffix,IF(F58="Request（请求）","Request",IF(F58="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DiagnosticsRefreshNotification</v>
       </c>
-      <c r="J58" s="13" t="str">
+      <c r="J58" s="12" t="str">
         <f t="shared" si="6"/>
         <v>none</v>
       </c>
-      <c r="K58" s="14" t="str">
+      <c r="K58" s="13" t="str">
         <f t="shared" si="10"/>
         <v>workspace_diagnostic_refresh</v>
       </c>
-      <c r="L58" s="15" t="str">
+      <c r="L58" s="14" t="str">
         <f t="shared" si="9"/>
         <v/>
       </c>
-      <c r="M58" s="16" t="str">
+      <c r="M58" s="15" t="str">
         <f t="shared" si="7"/>
         <v>false</v>
       </c>
-      <c r="N58" s="17" t="str">
+      <c r="N58" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5512,27 +5506,27 @@
         <v>22</v>
       </c>
       <c r="H59" s="7"/>
-      <c r="I59" s="13" t="str">
+      <c r="I59" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B59," ",""),_xlpm.suffix,IF(F59="Request（请求）","Request",IF(F59="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>SignatureHelpRequest</v>
       </c>
-      <c r="J59" s="13" t="str">
+      <c r="J59" s="12" t="str">
         <f t="shared" si="6"/>
         <v>SignatureHelpParams</v>
       </c>
-      <c r="K59" s="14" t="str">
+      <c r="K59" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_signatureHelp</v>
       </c>
-      <c r="L59" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F59="Notification（通知）","",IF(E59="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E59,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E59,"[]","List"),LEN(SUBSTITUTE(E59,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E59,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F59="Notification（通知）","",IF(E59="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E59,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E59,"[]","List"),LEN(SUBSTITUTE(E59,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E59,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F59="Notification（通知）","",IF(E59="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E59,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E59,"[]","List"),LEN(SUBSTITUTE(E59,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E59,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F59="Notification（通知）","",IF(E59="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E59,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E59,"[]","List"),LEN(SUBSTITUTE(E59,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E59,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F59="Notification（通知）","",IF(E59="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E59,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E59,"[]","List"),LEN(SUBSTITUTE(E59,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E59,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L59" s="14" t="str">
+        <f t="shared" si="9"/>
         <v>SignatureHelp</v>
       </c>
-      <c r="M59" s="16" t="str">
+      <c r="M59" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N59" s="17" t="str">
+      <c r="N59" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5567,26 +5561,26 @@
         <v>22</v>
       </c>
       <c r="H60" s="7"/>
-      <c r="I60" s="13" t="str">
+      <c r="I60" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B60," ",""),_xlpm.suffix,IF(F60="Request（请求）","Request",IF(F60="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CodeActionRequest</v>
       </c>
-      <c r="J60" s="13" t="str">
+      <c r="J60" s="12" t="str">
         <f t="shared" si="6"/>
         <v>CodeActionParams</v>
       </c>
-      <c r="K60" s="14" t="str">
+      <c r="K60" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_codeAction</v>
       </c>
-      <c r="L60" s="18" t="s">
+      <c r="L60" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="M60" s="16" t="str">
+      <c r="M60" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N60" s="17" t="str">
+      <c r="N60" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5624,27 +5618,27 @@
         <v>22</v>
       </c>
       <c r="H61" s="7"/>
-      <c r="I61" s="13" t="str">
+      <c r="I61" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B61," ",""),_xlpm.suffix,IF(F61="Request（请求）","Request",IF(F61="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CodeActionResolveRequest</v>
       </c>
-      <c r="J61" s="13" t="str">
+      <c r="J61" s="12" t="str">
         <f t="shared" si="6"/>
         <v>CodeAction</v>
       </c>
-      <c r="K61" s="14" t="str">
+      <c r="K61" s="13" t="str">
         <f t="shared" si="10"/>
         <v>codeAction_resolve</v>
       </c>
-      <c r="L61" s="15" t="str">
-        <f t="shared" ref="L61:L66" si="11">IF(AND(RIGHT(IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L61" s="14" t="str">
+        <f t="shared" ref="L61:L67" si="11">IF(AND(RIGHT(IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F61="Notification（通知）","",IF(E61="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E61,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E61,"[]","List"),LEN(SUBSTITUTE(E61,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E61,"[]","List")," | ","Or"))," | ","Or"))))</f>
         <v>CodeAction</v>
       </c>
-      <c r="M61" s="16" t="str">
+      <c r="M61" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N61" s="17" t="str">
+      <c r="N61" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5679,27 +5673,27 @@
         <v>22</v>
       </c>
       <c r="H62" s="7"/>
-      <c r="I62" s="13" t="str">
+      <c r="I62" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B62," ",""),_xlpm.suffix,IF(F62="Request（请求）","Request",IF(F62="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentColorRequest</v>
       </c>
-      <c r="J62" s="13" t="str">
+      <c r="J62" s="12" t="str">
         <f t="shared" si="6"/>
         <v>DocumentColorParams</v>
       </c>
-      <c r="K62" s="14" t="str">
+      <c r="K62" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_documentColor</v>
       </c>
-      <c r="L62" s="15" t="str">
+      <c r="L62" s="14" t="str">
         <f t="shared" si="11"/>
         <v>List&lt;ColorInformation&gt;</v>
       </c>
-      <c r="M62" s="16" t="str">
+      <c r="M62" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N62" s="17" t="str">
+      <c r="N62" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5734,27 +5728,27 @@
         <v>22</v>
       </c>
       <c r="H63" s="7"/>
-      <c r="I63" s="13" t="str">
+      <c r="I63" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B63," ",""),_xlpm.suffix,IF(F63="Request（请求）","Request",IF(F63="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ColorPresentationRequest</v>
       </c>
-      <c r="J63" s="13" t="str">
+      <c r="J63" s="12" t="str">
         <f t="shared" si="6"/>
         <v>ColorPresentationParams</v>
       </c>
-      <c r="K63" s="14" t="str">
+      <c r="K63" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_colorPresentation</v>
       </c>
-      <c r="L63" s="15" t="str">
+      <c r="L63" s="14" t="str">
         <f t="shared" si="11"/>
         <v>List&lt;ColorPresentation&gt;</v>
       </c>
-      <c r="M63" s="16" t="str">
+      <c r="M63" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N63" s="17" t="str">
+      <c r="N63" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5789,27 +5783,27 @@
         <v>22</v>
       </c>
       <c r="H64" s="7"/>
-      <c r="I64" s="13" t="str">
+      <c r="I64" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B64," ",""),_xlpm.suffix,IF(F64="Request（请求）","Request",IF(F64="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentFormattingRequest</v>
       </c>
-      <c r="J64" s="13" t="str">
+      <c r="J64" s="12" t="str">
         <f t="shared" si="6"/>
         <v>DocumentFormattingParams</v>
       </c>
-      <c r="K64" s="14" t="str">
+      <c r="K64" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_formatting</v>
       </c>
-      <c r="L64" s="15" t="str">
+      <c r="L64" s="14" t="str">
         <f t="shared" si="11"/>
         <v>List&lt;TextEdit&gt;</v>
       </c>
-      <c r="M64" s="16" t="str">
+      <c r="M64" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N64" s="17" t="str">
+      <c r="N64" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5844,27 +5838,27 @@
         <v>22</v>
       </c>
       <c r="H65" s="7"/>
-      <c r="I65" s="13" t="str">
+      <c r="I65" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B65," ",""),_xlpm.suffix,IF(F65="Request（请求）","Request",IF(F65="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentRangeFormattingRequest</v>
       </c>
-      <c r="J65" s="13" t="str">
+      <c r="J65" s="12" t="str">
         <f t="shared" si="6"/>
         <v>DocumentRangeFormattingParams</v>
       </c>
-      <c r="K65" s="14" t="str">
+      <c r="K65" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_rangeFormatting</v>
       </c>
-      <c r="L65" s="15" t="str">
+      <c r="L65" s="14" t="str">
         <f t="shared" si="11"/>
         <v>List&lt;TextEdit&gt;</v>
       </c>
-      <c r="M65" s="16" t="str">
+      <c r="M65" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N65" s="17" t="str">
+      <c r="N65" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5899,27 +5893,27 @@
         <v>22</v>
       </c>
       <c r="H66" s="7"/>
-      <c r="I66" s="13" t="str">
+      <c r="I66" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B66," ",""),_xlpm.suffix,IF(F66="Request（请求）","Request",IF(F66="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DocumentonTypeFormattingRequest</v>
       </c>
-      <c r="J66" s="13" t="str">
+      <c r="J66" s="12" t="str">
         <f t="shared" si="6"/>
         <v>DocumentOnTypeFormattingParams</v>
       </c>
-      <c r="K66" s="14" t="str">
+      <c r="K66" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_onTypeFormatting</v>
       </c>
-      <c r="L66" s="15" t="str">
+      <c r="L66" s="14" t="str">
         <f t="shared" si="11"/>
         <v>List&lt;TextEdit&gt;</v>
       </c>
-      <c r="M66" s="16" t="str">
+      <c r="M66" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N66" s="17" t="str">
+      <c r="N66" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -5954,27 +5948,27 @@
         <v>22</v>
       </c>
       <c r="H67" s="7"/>
-      <c r="I67" s="13" t="str">
+      <c r="I67" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B67," ",""),_xlpm.suffix,IF(F67="Request（请求）","Request",IF(F67="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>RenameRequest</v>
       </c>
-      <c r="J67" s="13" t="str">
+      <c r="J67" s="12" t="str">
         <f t="shared" si="6"/>
         <v>RenameParams</v>
       </c>
-      <c r="K67" s="14" t="str">
+      <c r="K67" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_rename</v>
       </c>
-      <c r="L67" s="15" t="str">
-        <f>IF(AND(RIGHT(IF(F67="Notification（通知）","",IF(E67="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E67,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E67,"[]","List"),LEN(SUBSTITUTE(E67,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E67,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F67="Notification（通知）","",IF(E67="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E67,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E67,"[]","List"),LEN(SUBSTITUTE(E67,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E67,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F67="Notification（通知）","",IF(E67="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E67,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E67,"[]","List"),LEN(SUBSTITUTE(E67,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E67,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F67="Notification（通知）","",IF(E67="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E67,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E67,"[]","List"),LEN(SUBSTITUTE(E67,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E67,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F67="Notification（通知）","",IF(E67="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E67,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E67,"[]","List"),LEN(SUBSTITUTE(E67,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E67,"[]","List")," | ","Or"))," | ","Or"))))</f>
+      <c r="L67" s="14" t="str">
+        <f t="shared" si="11"/>
         <v>WorkspaceEdit</v>
       </c>
-      <c r="M67" s="16" t="str">
+      <c r="M67" s="15" t="str">
         <f t="shared" si="7"/>
         <v>true</v>
       </c>
-      <c r="N67" s="17" t="str">
+      <c r="N67" s="16" t="str">
         <f t="shared" si="8"/>
         <v>new
 {
@@ -6009,26 +6003,26 @@
         <v>22</v>
       </c>
       <c r="H68" s="7"/>
-      <c r="I68" s="13" t="str">
+      <c r="I68" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B68," ",""),_xlpm.suffix,IF(F68="Request（请求）","Request",IF(F68="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>PrepareRenameRequest</v>
       </c>
-      <c r="J68" s="13" t="str">
+      <c r="J68" s="12" t="str">
         <f t="shared" ref="J68:J95" si="12">D68</f>
         <v>PrepareRenameParams</v>
       </c>
-      <c r="K68" s="14" t="str">
+      <c r="K68" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_prepareRename</v>
       </c>
-      <c r="L68" s="18" t="s">
+      <c r="L68" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="M68" s="16" t="str">
+      <c r="M68" s="15" t="str">
         <f t="shared" ref="M68:M95" si="13">IF(F68="Request（请求）","true",IF(F68="Notification（通知）","false","error"))</f>
         <v>true</v>
       </c>
-      <c r="N68" s="17" t="str">
+      <c r="N68" s="16" t="str">
         <f t="shared" ref="N68:N95" si="14">"new"&amp;CHAR(10)&amp;"{"&amp;CHAR(10)&amp;"    Method = """&amp;I68&amp;""","&amp;CHAR(10)&amp;"    ResultType = """&amp;L68&amp;""","&amp;CHAR(10)&amp;"    ParamsType = """&amp;J68&amp;""","&amp;CHAR(10)&amp;"    LspMethod = """&amp;K68&amp;""","&amp;CHAR(10)&amp;"    IsRequest="&amp;M68&amp;CHAR(10)&amp;"}"</f>
         <v>new
 {
@@ -6066,27 +6060,27 @@
         <v>22</v>
       </c>
       <c r="H69" s="7"/>
-      <c r="I69" s="13" t="str">
+      <c r="I69" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B69," ",""),_xlpm.suffix,IF(F69="Request（请求）","Request",IF(F69="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>LinkedEditingRangeRequest</v>
       </c>
-      <c r="J69" s="13" t="str">
+      <c r="J69" s="12" t="str">
         <f t="shared" si="12"/>
         <v>LinkedEditingRangeParams</v>
       </c>
-      <c r="K69" s="14" t="str">
+      <c r="K69" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_linkedEditingRange</v>
       </c>
-      <c r="L69" s="15" t="str">
+      <c r="L69" s="14" t="str">
         <f>IF(AND(RIGHT(IF(F69="Notification（通知）","",IF(E69="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E69,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E69,"[]","List"),LEN(SUBSTITUTE(E69,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E69,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F69="Notification（通知）","",IF(E69="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E69,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E69,"[]","List"),LEN(SUBSTITUTE(E69,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E69,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F69="Notification（通知）","",IF(E69="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E69,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E69,"[]","List"),LEN(SUBSTITUTE(E69,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E69,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F69="Notification（通知）","",IF(E69="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E69,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E69,"[]","List"),LEN(SUBSTITUTE(E69,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E69,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F69="Notification（通知）","",IF(E69="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E69,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E69,"[]","List"),LEN(SUBSTITUTE(E69,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E69,"[]","List")," | ","Or"))," | ","Or"))))</f>
         <v>LinkedEditingRanges</v>
       </c>
-      <c r="M69" s="16" t="str">
+      <c r="M69" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N69" s="17" t="str">
+      <c r="N69" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6121,27 +6115,27 @@
         <v>22</v>
       </c>
       <c r="H70" s="7"/>
-      <c r="I70" s="13" t="str">
+      <c r="I70" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B70," ",""),_xlpm.suffix,IF(F70="Request（请求）","Request",IF(F70="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>InlineCompletionRequest</v>
       </c>
-      <c r="J70" s="13" t="str">
+      <c r="J70" s="12" t="str">
         <f t="shared" si="12"/>
         <v>InlineCompletionParams</v>
       </c>
-      <c r="K70" s="14" t="str">
+      <c r="K70" s="13" t="str">
         <f t="shared" si="10"/>
         <v>textDocument_inlineCompletion</v>
       </c>
-      <c r="L70" s="15" t="str">
+      <c r="L70" s="14" t="str">
         <f t="shared" ref="L70:L95" si="15">IF(AND(RIGHT(IF(F70="Notification（通知）","",IF(E70="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E70,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E70,"[]","List"),LEN(SUBSTITUTE(E70,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E70,"[]","List")," | ","Or"))," | ","Or"))),4)="List",ISERROR(FIND("Or",IF(F70="Notification（通知）","",IF(E70="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E70,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E70,"[]","List"),LEN(SUBSTITUTE(E70,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E70,"[]","List")," | ","Or"))," | ","Or")))))),"List&lt;"&amp;LEFT(IF(F70="Notification（通知）","",IF(E70="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E70,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E70,"[]","List"),LEN(SUBSTITUTE(E70,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E70,"[]","List")," | ","Or"))," | ","Or"))),LEN(IF(F70="Notification（通知）","",IF(E70="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E70,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E70,"[]","List"),LEN(SUBSTITUTE(E70,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E70,"[]","List")," | ","Or"))," | ","Or"))))-4)&amp;"&gt;",IF(F70="Notification（通知）","",IF(E70="null","",SUBSTITUTE(IF(RIGHT(SUBSTITUTE(E70,"[]","List"),7)=" | null",LEFT(SUBSTITUTE(E70,"[]","List"),LEN(SUBSTITUTE(E70,"[]","List"))-7),SUBSTITUTE(SUBSTITUTE(E70,"[]","List")," | ","Or"))," | ","Or"))))</f>
         <v>InlineCompletionItemListOrInlineCompletionList</v>
       </c>
-      <c r="M70" s="16" t="str">
+      <c r="M70" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N70" s="17" t="str">
+      <c r="N70" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6176,27 +6170,27 @@
         <v>22</v>
       </c>
       <c r="H71" s="7"/>
-      <c r="I71" s="13" t="str">
+      <c r="I71" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B71," ",""),_xlpm.suffix,IF(F71="Request（请求）","Request",IF(F71="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WorkspaceSymbolsRequest</v>
       </c>
-      <c r="J71" s="13" t="str">
+      <c r="J71" s="12" t="str">
         <f t="shared" si="12"/>
         <v>WorkspaceSymbolParams</v>
       </c>
-      <c r="K71" s="14" t="str">
+      <c r="K71" s="13" t="str">
         <f t="shared" si="10"/>
         <v>workspace_symbol</v>
       </c>
-      <c r="L71" s="15" t="str">
+      <c r="L71" s="14" t="str">
         <f t="shared" si="15"/>
         <v>SymbolInformationListOrWorkspaceSymbolList</v>
       </c>
-      <c r="M71" s="16" t="str">
+      <c r="M71" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N71" s="17" t="str">
+      <c r="N71" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6231,27 +6225,27 @@
         <v>22</v>
       </c>
       <c r="H72" s="7"/>
-      <c r="I72" s="13" t="str">
+      <c r="I72" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B72," ",""),_xlpm.suffix,IF(F72="Request（请求）","Request",IF(F72="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WorkspaceSymbolResolveRequest</v>
       </c>
-      <c r="J72" s="13" t="str">
+      <c r="J72" s="12" t="str">
         <f t="shared" si="12"/>
         <v>WorkspaceSymbol</v>
       </c>
-      <c r="K72" s="14" t="str">
+      <c r="K72" s="13" t="str">
         <f t="shared" ref="K72:K95" si="16">SUBSTITUTE(SUBSTITUTE(C72,"/","_"),"$_","")</f>
         <v>workspaceSymbol_resolve</v>
       </c>
-      <c r="L72" s="15" t="str">
+      <c r="L72" s="14" t="str">
         <f t="shared" si="15"/>
         <v>WorkspaceSymbol</v>
       </c>
-      <c r="M72" s="16" t="str">
+      <c r="M72" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N72" s="17" t="str">
+      <c r="N72" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6286,27 +6280,27 @@
         <v>162</v>
       </c>
       <c r="H73" s="7"/>
-      <c r="I73" s="13" t="str">
+      <c r="I73" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B73," ",""),_xlpm.suffix,IF(F73="Request（请求）","Request",IF(F73="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ConfigurationRequest</v>
       </c>
-      <c r="J73" s="13" t="str">
+      <c r="J73" s="12" t="str">
         <f t="shared" si="12"/>
         <v>ConfigurationParams</v>
       </c>
-      <c r="K73" s="14" t="str">
+      <c r="K73" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_configuration</v>
       </c>
-      <c r="L73" s="15" t="str">
+      <c r="L73" s="14" t="str">
         <f t="shared" si="15"/>
         <v>List&lt;LSPAny&gt;</v>
       </c>
-      <c r="M73" s="16" t="str">
+      <c r="M73" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N73" s="17" t="str">
+      <c r="N73" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6341,27 +6335,27 @@
         <v>22</v>
       </c>
       <c r="H74" s="7"/>
-      <c r="I74" s="13" t="str">
+      <c r="I74" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B74," ",""),_xlpm.suffix,IF(F74="Request（请求）","Request",IF(F74="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidChangeConfigurationNotification</v>
       </c>
-      <c r="J74" s="13" t="str">
+      <c r="J74" s="12" t="str">
         <f t="shared" si="12"/>
         <v>DidChangeConfigurationParams</v>
       </c>
-      <c r="K74" s="14" t="str">
+      <c r="K74" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_didChangeConfiguration</v>
       </c>
-      <c r="L74" s="15" t="str">
+      <c r="L74" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M74" s="16" t="str">
+      <c r="M74" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N74" s="17" t="str">
+      <c r="N74" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6396,27 +6390,27 @@
         <v>162</v>
       </c>
       <c r="H75" s="7"/>
-      <c r="I75" s="13" t="str">
+      <c r="I75" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B75," ",""),_xlpm.suffix,IF(F75="Request（请求）","Request",IF(F75="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WorkspaceFoldersRequest</v>
       </c>
-      <c r="J75" s="13" t="str">
+      <c r="J75" s="12" t="str">
         <f t="shared" si="12"/>
         <v>none</v>
       </c>
-      <c r="K75" s="14" t="str">
+      <c r="K75" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_workspaceFolders</v>
       </c>
-      <c r="L75" s="15" t="str">
+      <c r="L75" s="14" t="str">
         <f t="shared" si="15"/>
         <v>List&lt;WorkspaceFolder&gt;</v>
       </c>
-      <c r="M75" s="16" t="str">
+      <c r="M75" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N75" s="17" t="str">
+      <c r="N75" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6451,27 +6445,27 @@
         <v>22</v>
       </c>
       <c r="H76" s="7"/>
-      <c r="I76" s="13" t="str">
+      <c r="I76" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B76," ",""),_xlpm.suffix,IF(F76="Request（请求）","Request",IF(F76="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidChangeWorkspaceFoldersNotification</v>
       </c>
-      <c r="J76" s="13" t="str">
+      <c r="J76" s="12" t="str">
         <f t="shared" si="12"/>
         <v>DidChangeWorkspaceFoldersParams</v>
       </c>
-      <c r="K76" s="14" t="str">
+      <c r="K76" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_didChangeWorkspaceFolders</v>
       </c>
-      <c r="L76" s="15" t="str">
+      <c r="L76" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M76" s="16" t="str">
+      <c r="M76" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N76" s="17" t="str">
+      <c r="N76" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6506,27 +6500,27 @@
         <v>22</v>
       </c>
       <c r="H77" s="7"/>
-      <c r="I77" s="13" t="str">
+      <c r="I77" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B77," ",""),_xlpm.suffix,IF(F77="Request（请求）","Request",IF(F77="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WillCreateFilesRequest</v>
       </c>
-      <c r="J77" s="13" t="str">
+      <c r="J77" s="12" t="str">
         <f t="shared" si="12"/>
         <v>CreateFilesParams</v>
       </c>
-      <c r="K77" s="14" t="str">
+      <c r="K77" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_willCreateFiles</v>
       </c>
-      <c r="L77" s="15" t="str">
+      <c r="L77" s="14" t="str">
         <f t="shared" si="15"/>
         <v>WorkspaceEdit</v>
       </c>
-      <c r="M77" s="16" t="str">
+      <c r="M77" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N77" s="17" t="str">
+      <c r="N77" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6561,27 +6555,27 @@
         <v>22</v>
       </c>
       <c r="H78" s="7"/>
-      <c r="I78" s="13" t="str">
+      <c r="I78" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B78," ",""),_xlpm.suffix,IF(F78="Request（请求）","Request",IF(F78="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidCreateFilesNotification</v>
       </c>
-      <c r="J78" s="13" t="str">
+      <c r="J78" s="12" t="str">
         <f t="shared" si="12"/>
         <v>CreateFilesParams</v>
       </c>
-      <c r="K78" s="14" t="str">
+      <c r="K78" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_didCreateFiles</v>
       </c>
-      <c r="L78" s="15" t="str">
+      <c r="L78" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M78" s="16" t="str">
+      <c r="M78" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N78" s="17" t="str">
+      <c r="N78" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6616,27 +6610,27 @@
         <v>22</v>
       </c>
       <c r="H79" s="7"/>
-      <c r="I79" s="13" t="str">
+      <c r="I79" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B79," ",""),_xlpm.suffix,IF(F79="Request（请求）","Request",IF(F79="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WillRenameFilesRequest</v>
       </c>
-      <c r="J79" s="13" t="str">
+      <c r="J79" s="12" t="str">
         <f t="shared" si="12"/>
         <v>RenameFilesParams</v>
       </c>
-      <c r="K79" s="14" t="str">
+      <c r="K79" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_willRenameFiles</v>
       </c>
-      <c r="L79" s="15" t="str">
+      <c r="L79" s="14" t="str">
         <f t="shared" si="15"/>
         <v>WorkspaceEdit</v>
       </c>
-      <c r="M79" s="16" t="str">
+      <c r="M79" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N79" s="17" t="str">
+      <c r="N79" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6671,27 +6665,27 @@
         <v>22</v>
       </c>
       <c r="H80" s="7"/>
-      <c r="I80" s="13" t="str">
+      <c r="I80" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B80," ",""),_xlpm.suffix,IF(F80="Request（请求）","Request",IF(F80="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidRenameFilesNotification</v>
       </c>
-      <c r="J80" s="13" t="str">
+      <c r="J80" s="12" t="str">
         <f t="shared" si="12"/>
         <v>RenameFilesParams</v>
       </c>
-      <c r="K80" s="14" t="str">
+      <c r="K80" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_didRenameFiles</v>
       </c>
-      <c r="L80" s="15" t="str">
+      <c r="L80" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M80" s="16" t="str">
+      <c r="M80" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N80" s="17" t="str">
+      <c r="N80" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6726,27 +6720,27 @@
         <v>22</v>
       </c>
       <c r="H81" s="7"/>
-      <c r="I81" s="13" t="str">
+      <c r="I81" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B81," ",""),_xlpm.suffix,IF(F81="Request（请求）","Request",IF(F81="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>WillDeleteFilesRequest</v>
       </c>
-      <c r="J81" s="13" t="str">
+      <c r="J81" s="12" t="str">
         <f t="shared" si="12"/>
         <v>DeleteFilesParams</v>
       </c>
-      <c r="K81" s="14" t="str">
+      <c r="K81" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_willDeleteFiles</v>
       </c>
-      <c r="L81" s="15" t="str">
+      <c r="L81" s="14" t="str">
         <f t="shared" si="15"/>
         <v>WorkspaceEdit</v>
       </c>
-      <c r="M81" s="16" t="str">
+      <c r="M81" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N81" s="17" t="str">
+      <c r="N81" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6781,27 +6775,27 @@
         <v>22</v>
       </c>
       <c r="H82" s="7"/>
-      <c r="I82" s="13" t="str">
+      <c r="I82" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B82," ",""),_xlpm.suffix,IF(F82="Request（请求）","Request",IF(F82="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidDeleteFilesNotification</v>
       </c>
-      <c r="J82" s="13" t="str">
+      <c r="J82" s="12" t="str">
         <f t="shared" si="12"/>
         <v>DeleteFilesParams</v>
       </c>
-      <c r="K82" s="14" t="str">
+      <c r="K82" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_didDeleteFiles</v>
       </c>
-      <c r="L82" s="15" t="str">
+      <c r="L82" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M82" s="16" t="str">
+      <c r="M82" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N82" s="17" t="str">
+      <c r="N82" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6836,27 +6830,27 @@
         <v>22</v>
       </c>
       <c r="H83" s="7"/>
-      <c r="I83" s="13" t="str">
+      <c r="I83" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B83," ",""),_xlpm.suffix,IF(F83="Request（请求）","Request",IF(F83="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>DidChangeWatchedFilesNotification</v>
       </c>
-      <c r="J83" s="13" t="str">
+      <c r="J83" s="12" t="str">
         <f t="shared" si="12"/>
         <v>DidChangeWatchedFilesParams</v>
       </c>
-      <c r="K83" s="14" t="str">
+      <c r="K83" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_didChangeWatchedFiles</v>
       </c>
-      <c r="L83" s="15" t="str">
+      <c r="L83" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M83" s="16" t="str">
+      <c r="M83" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N83" s="17" t="str">
+      <c r="N83" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6891,27 +6885,27 @@
         <v>22</v>
       </c>
       <c r="H84" s="7"/>
-      <c r="I84" s="13" t="str">
+      <c r="I84" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B84," ",""),_xlpm.suffix,IF(F84="Request（请求）","Request",IF(F84="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ExecuteacommandRequest</v>
       </c>
-      <c r="J84" s="13" t="str">
+      <c r="J84" s="12" t="str">
         <f t="shared" si="12"/>
         <v>ExecuteCommandParams</v>
       </c>
-      <c r="K84" s="14" t="str">
+      <c r="K84" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_executeCommand</v>
       </c>
-      <c r="L84" s="15" t="str">
+      <c r="L84" s="14" t="str">
         <f t="shared" si="15"/>
         <v>LSPAny</v>
       </c>
-      <c r="M84" s="16" t="str">
+      <c r="M84" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N84" s="17" t="str">
+      <c r="N84" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -6946,27 +6940,27 @@
         <v>162</v>
       </c>
       <c r="H85" s="7"/>
-      <c r="I85" s="13" t="str">
+      <c r="I85" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B85," ",""),_xlpm.suffix,IF(F85="Request（请求）","Request",IF(F85="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>AppliesaWorkspaceEditRequest</v>
       </c>
-      <c r="J85" s="13" t="str">
+      <c r="J85" s="12" t="str">
         <f t="shared" si="12"/>
         <v>ApplyWorkspaceEditParams</v>
       </c>
-      <c r="K85" s="14" t="str">
+      <c r="K85" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_applyEdit</v>
       </c>
-      <c r="L85" s="15" t="str">
+      <c r="L85" s="14" t="str">
         <f t="shared" si="15"/>
         <v>ApplyWorkspaceEditResult</v>
       </c>
-      <c r="M85" s="16" t="str">
+      <c r="M85" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N85" s="17" t="str">
+      <c r="N85" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7001,27 +6995,27 @@
         <v>22</v>
       </c>
       <c r="H86" s="7"/>
-      <c r="I86" s="13" t="str">
+      <c r="I86" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B86," ",""),_xlpm.suffix,IF(F86="Request（请求）","Request",IF(F86="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>TextDocumentContentRequest</v>
       </c>
-      <c r="J86" s="13" t="str">
+      <c r="J86" s="12" t="str">
         <f t="shared" si="12"/>
         <v>TextDocumentContentParams</v>
       </c>
-      <c r="K86" s="14" t="str">
+      <c r="K86" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_textDocumentContent</v>
       </c>
-      <c r="L86" s="15" t="str">
+      <c r="L86" s="14" t="str">
         <f t="shared" si="15"/>
         <v>TextDocumentContentResult</v>
       </c>
-      <c r="M86" s="16" t="str">
+      <c r="M86" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N86" s="17" t="str">
+      <c r="N86" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7056,27 +7050,27 @@
         <v>162</v>
       </c>
       <c r="H87" s="7"/>
-      <c r="I87" s="13" t="str">
+      <c r="I87" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B87," ",""),_xlpm.suffix,IF(F87="Request（请求）","Request",IF(F87="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>TextDocumentContentRefreshRequest</v>
       </c>
-      <c r="J87" s="13" t="str">
+      <c r="J87" s="12" t="str">
         <f t="shared" si="12"/>
         <v>TextDocumentContentRefreshParams</v>
       </c>
-      <c r="K87" s="14" t="str">
+      <c r="K87" s="13" t="str">
         <f t="shared" si="16"/>
         <v>workspace_textDocumentContent_refresh</v>
       </c>
-      <c r="L87" s="15" t="str">
+      <c r="L87" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M87" s="16" t="str">
+      <c r="M87" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N87" s="17" t="str">
+      <c r="N87" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7111,27 +7105,27 @@
         <v>162</v>
       </c>
       <c r="H88" s="7"/>
-      <c r="I88" s="13" t="str">
+      <c r="I88" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B88," ",""),_xlpm.suffix,IF(F88="Request（请求）","Request",IF(F88="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ShowMessageNotification</v>
       </c>
-      <c r="J88" s="13" t="str">
+      <c r="J88" s="12" t="str">
         <f t="shared" si="12"/>
         <v>ShowMessageParams</v>
       </c>
-      <c r="K88" s="14" t="str">
+      <c r="K88" s="13" t="str">
         <f t="shared" si="16"/>
         <v>window_showMessage</v>
       </c>
-      <c r="L88" s="15" t="str">
+      <c r="L88" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M88" s="16" t="str">
+      <c r="M88" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N88" s="17" t="str">
+      <c r="N88" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7166,27 +7160,27 @@
         <v>162</v>
       </c>
       <c r="H89" s="7"/>
-      <c r="I89" s="13" t="str">
+      <c r="I89" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B89," ",""),_xlpm.suffix,IF(F89="Request（请求）","Request",IF(F89="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ShowMessageRequest</v>
       </c>
-      <c r="J89" s="13" t="str">
+      <c r="J89" s="12" t="str">
         <f t="shared" si="12"/>
         <v>ShowMessageRequestParams</v>
       </c>
-      <c r="K89" s="14" t="str">
+      <c r="K89" s="13" t="str">
         <f t="shared" si="16"/>
         <v>window_showMessageRequest</v>
       </c>
-      <c r="L89" s="15" t="str">
+      <c r="L89" s="14" t="str">
         <f t="shared" si="15"/>
         <v>MessageActionItem</v>
       </c>
-      <c r="M89" s="16" t="str">
+      <c r="M89" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N89" s="17" t="str">
+      <c r="N89" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7221,27 +7215,27 @@
         <v>162</v>
       </c>
       <c r="H90" s="7"/>
-      <c r="I90" s="13" t="str">
+      <c r="I90" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B90," ",""),_xlpm.suffix,IF(F90="Request（请求）","Request",IF(F90="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ShowDocumentRequest</v>
       </c>
-      <c r="J90" s="13" t="str">
+      <c r="J90" s="12" t="str">
         <f t="shared" si="12"/>
         <v>ShowDocumentParams</v>
       </c>
-      <c r="K90" s="14" t="str">
+      <c r="K90" s="13" t="str">
         <f t="shared" si="16"/>
         <v>window_showDocument</v>
       </c>
-      <c r="L90" s="15" t="str">
+      <c r="L90" s="14" t="str">
         <f t="shared" si="15"/>
         <v>ShowDocumentResult</v>
       </c>
-      <c r="M90" s="16" t="str">
+      <c r="M90" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N90" s="17" t="str">
+      <c r="N90" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7276,27 +7270,27 @@
         <v>162</v>
       </c>
       <c r="H91" s="7"/>
-      <c r="I91" s="13" t="str">
+      <c r="I91" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B91," ",""),_xlpm.suffix,IF(F91="Request（请求）","Request",IF(F91="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>LogMessageNotification</v>
       </c>
-      <c r="J91" s="13" t="str">
+      <c r="J91" s="12" t="str">
         <f t="shared" si="12"/>
         <v>LogMessageParams</v>
       </c>
-      <c r="K91" s="14" t="str">
+      <c r="K91" s="13" t="str">
         <f t="shared" si="16"/>
         <v>window_logMessage</v>
       </c>
-      <c r="L91" s="15" t="str">
+      <c r="L91" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M91" s="16" t="str">
+      <c r="M91" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N91" s="17" t="str">
+      <c r="N91" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7331,27 +7325,27 @@
         <v>162</v>
       </c>
       <c r="H92" s="7"/>
-      <c r="I92" s="13" t="str">
+      <c r="I92" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B92," ",""),_xlpm.suffix,IF(F92="Request（请求）","Request",IF(F92="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CreateWorkDoneProgressRequest</v>
       </c>
-      <c r="J92" s="13" t="str">
+      <c r="J92" s="12" t="str">
         <f t="shared" si="12"/>
         <v>WorkDoneProgressCreateParams</v>
       </c>
-      <c r="K92" s="14" t="str">
+      <c r="K92" s="13" t="str">
         <f t="shared" si="16"/>
         <v>window_workDoneProgress_create</v>
       </c>
-      <c r="L92" s="15" t="str">
+      <c r="L92" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M92" s="16" t="str">
+      <c r="M92" s="15" t="str">
         <f t="shared" si="13"/>
         <v>true</v>
       </c>
-      <c r="N92" s="17" t="str">
+      <c r="N92" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7386,27 +7380,27 @@
         <v>162</v>
       </c>
       <c r="H93" s="7"/>
-      <c r="I93" s="13" t="str">
+      <c r="I93" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B93," ",""),_xlpm.suffix,IF(F93="Request（请求）","Request",IF(F93="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>CancelaWorkDoneProgressNotification</v>
       </c>
-      <c r="J93" s="13" t="str">
+      <c r="J93" s="12" t="str">
         <f t="shared" si="12"/>
         <v>WorkDoneProgressCancelParams</v>
       </c>
-      <c r="K93" s="14" t="str">
+      <c r="K93" s="13" t="str">
         <f t="shared" si="16"/>
         <v>window_workDoneProgress_cancel</v>
       </c>
-      <c r="L93" s="15" t="str">
+      <c r="L93" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M93" s="16" t="str">
+      <c r="M93" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N93" s="17" t="str">
+      <c r="N93" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7441,26 +7435,26 @@
         <v>162</v>
       </c>
       <c r="H94" s="7"/>
-      <c r="I94" s="13" t="str">
+      <c r="I94" s="12" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B94," ",""),_xlpm.suffix,IF(F94="Request（请求）","Request",IF(F94="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>TelemetryNotification</v>
       </c>
-      <c r="J94" s="13" t="s">
+      <c r="J94" s="12" t="s">
         <v>353</v>
       </c>
-      <c r="K94" s="14" t="str">
+      <c r="K94" s="13" t="str">
         <f t="shared" si="16"/>
         <v>telemetry_event</v>
       </c>
-      <c r="L94" s="15" t="str">
+      <c r="L94" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M94" s="16" t="str">
+      <c r="M94" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N94" s="17" t="str">
+      <c r="N94" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
@@ -7473,49 +7467,49 @@
       </c>
     </row>
     <row r="95" customHeight="1" spans="1:14">
-      <c r="A95" s="19" t="s">
+      <c r="A95" s="17" t="s">
         <v>354</v>
       </c>
-      <c r="B95" s="20" t="s">
+      <c r="B95" s="18" t="s">
         <v>355</v>
       </c>
-      <c r="C95" s="21" t="s">
+      <c r="C95" s="19" t="s">
         <v>356</v>
       </c>
-      <c r="D95" s="20" t="s">
+      <c r="D95" s="18" t="s">
         <v>357</v>
       </c>
-      <c r="E95" s="21" t="s">
+      <c r="E95" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="F95" s="21" t="s">
+      <c r="F95" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="G95" s="21" t="s">
+      <c r="G95" s="19" t="s">
         <v>358</v>
       </c>
-      <c r="H95" s="21"/>
-      <c r="I95" s="20" t="str">
+      <c r="H95" s="19"/>
+      <c r="I95" s="18" t="str">
         <f>_xlfn.LET(_xlpm.merged,SUBSTITUTE(B95," ",""),_xlpm.suffix,IF(F95="Request（请求）","Request",IF(F95="Notification（通知）","Notification","")),IF(RIGHT(_xlpm.merged,LEN(_xlpm.suffix))=_xlpm.suffix,_xlpm.merged,_xlpm.merged&amp;_xlpm.suffix))</f>
         <v>ProgressSupportNotification</v>
       </c>
-      <c r="J95" s="20" t="str">
+      <c r="J95" s="18" t="str">
         <f t="shared" si="12"/>
         <v>ProgressParams</v>
       </c>
-      <c r="K95" s="14" t="str">
+      <c r="K95" s="13" t="str">
         <f t="shared" si="16"/>
         <v>progress</v>
       </c>
-      <c r="L95" s="15" t="str">
+      <c r="L95" s="14" t="str">
         <f t="shared" si="15"/>
         <v/>
       </c>
-      <c r="M95" s="16" t="str">
+      <c r="M95" s="15" t="str">
         <f t="shared" si="13"/>
         <v>false</v>
       </c>
-      <c r="N95" s="17" t="str">
+      <c r="N95" s="16" t="str">
         <f t="shared" si="14"/>
         <v>new
 {
